--- a/medicine/Psychotrope/Brasserie_Grain_d'orge_(Belgique)/Brasserie_Grain_d'orge_(Belgique).xlsx
+++ b/medicine/Psychotrope/Brasserie_Grain_d'orge_(Belgique)/Brasserie_Grain_d'orge_(Belgique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_Grain_d%27orge_(Belgique)</t>
+          <t>Brasserie_Grain_d'orge_(Belgique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Grain d'orge est une entreprise artisanale belge située dans le village de Hombourg faisant partie de la commune de Plombières au nord de la province de Liège non loin des Pays-Bas. Elle produit cinq bières spéciales ainsi que plusieurs bières à façon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_Grain_d%27orge_(Belgique)</t>
+          <t>Brasserie_Grain_d'orge_(Belgique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir travaillé à la brasserie Piron d’Aubel où il brassa pendant plusieurs années la Légende d’Aubel ainsi que la Val-Dieu, Benoît Johnen ouvre sa propre brasserie[1].
-L’ouverture officielle de la brasserie a lieu le 19 avril 2002 avec le lancement de la 3 Schtèng brassée au sein de la brasserie mais commercialisée par une autre entreprise. La Brice et la Joup sont créées en 2003. Depuis, la production n'a fait que croître pour atteindre 1360 hl en 2012. Les locaux de la brasserie devenus trop exigus, l'entreprise déménage au n° 3 de la rue Laschet à Hombourg[1].
-Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W)[2].
-La Brasserie Grain d'orge est devenu en 20 ans, l'une des brasseries les plus populaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir travaillé à la brasserie Piron d’Aubel où il brassa pendant plusieurs années la Légende d’Aubel ainsi que la Val-Dieu, Benoît Johnen ouvre sa propre brasserie.
+L’ouverture officielle de la brasserie a lieu le 19 avril 2002 avec le lancement de la 3 Schtèng brassée au sein de la brasserie mais commercialisée par une autre entreprise. La Brice et la Joup sont créées en 2003. Depuis, la production n'a fait que croître pour atteindre 1360 hl en 2012. Les locaux de la brasserie devenus trop exigus, l'entreprise déménage au n° 3 de la rue Laschet à Hombourg.
+Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
+La Brasserie Grain d'orge est devenu en 20 ans, l'une des brasseries les plus populaires.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_Grain_d%27orge_(Belgique)</t>
+          <t>Brasserie_Grain_d'orge_(Belgique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit cinq bières artisanales commercialisées en bouteilles de 33 cl.
 Brice : cette bière blonde titrant 7,5 % d'alcool est refermentée en bouteille. Son goût est bien équilibré entre houblon et pointe d’épice.
